--- a/2.Python/WebCrawler/Crawler_1.0/결과.xlsx
+++ b/2.Python/WebCrawler/Crawler_1.0/결과.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>대우재단빌딩</t>
+          <t>한국생명존중희망재단</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로 18</t>
+          <t>서울 중구 을지로 6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>http://kfsp.org</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>FAX. (사업총괄본부) 02-3706-0400, (정책지원본부) 02-3706-0401, (자살예방교육부) 02-3706-0402, (자살예방홍보부) 02-3706-0403</t>
         </is>
       </c>
     </row>
@@ -481,24 +481,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>대우재단빌딩</t>
+          <t>한국예술인복지재단</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로 18</t>
+          <t>서울 종로구 이화장길 70-15 소호빌딩 1층</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>http://www.kawf.kr/</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -506,22 +502,1081 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>한국백혈병어린이재단 서울나음소아암센터</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>서울 성북구 성북로5길 9-14</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>http://www.kclf.org/</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>팩스 0507-517-7671</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>아름다운재단</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>서울 종로구 자하문로19길 6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.beautifulfund.org/</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>주소 서울시 종로구 자하문로 19길 6(옥인동 13-1)
+우편번호 03035 대표 한찬희 사업자번호 101-82-07976
+전화 02-766-1004 팩스 02-6969-5196
+이메일 give@beautifulfund.org
+ⓒ The BeautifulFoundation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>다일복지재단</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>서울 동대문구 서울시립대로 57 다일복지재단</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>http://www.dail.org</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FAX. 02) 2247-8004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>마포복지재단</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>서울 마포구 대흥로24길 50 1층</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>http://www.mapowf.or.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>하나금융나눔재단</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>서울 중구 다동길 43</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>http://www.hana-nanum.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>롯데재단</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>서울 중구 남대문로 81 롯데백화점(본점)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>http://www.lottefoundation.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>초록우산 어린이재단</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>서울 중구 무교로 20 한국복지재단 11층</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>http://www.childfund.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>열매나눔재단</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>서울 중구 퇴계로20길 37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>http://www.merryyear.org/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TEL : 02-310-9508 / FAX : 02-310-9504
+E-mail : csmerry@merryyear.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>한국연극인복지재단</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>서울 종로구 동숭길 29 2층</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/playsorkr</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>대한불교조계종사회복지재단</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>서울 종로구 우정국로 67</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>http://jabinanum.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>각당복지재단</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>서울 종로구 경희궁1길 29</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>http://www.kakdang.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>종로종합사회복지관</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>서울 종로구 지봉로13길 82</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>http://www.jongno.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>계영복지재단</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>서울 성북구 동소문로 306</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>http://kehyoung.co.kr/</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>팩스: 02-2057-2295</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>대우재단빌딩</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>서울 중구 퇴계로 18</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>재단법인 우체국공익재단</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>서울 종로구 송월1길 73-10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>http://www.kopf.or.kr/</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">대표전화 : 02-725-3850  팩스 : 02-725-3849 </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>사회복지법인감리회태화복지재단</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>서울 종로구 인사동5길 29</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>http://www.taiwhafound.org/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>서울시 종로구 인사동5길 29 태화빌딩 2층 TEL : 02-733-9597 FAX : 02-733-3889</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>송석복지재단</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>서울 종로구 창경궁로35가길 13</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>http://www.songsuk.org</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>파라다이스 복지재단</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>서울 중구 동호로 268 파라다이스빌딩</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>http://www.paradise.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>동아꿈나무재단</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>서울 서대문구 충정로 29 (주)동아일보사</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>http://www.dkf.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IBK행복나눔재단</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>서울 중구 을지로 79</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>http://www.ibkfoundation.or.kr/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>(재)IBK행복나눔재단 | 서울시 중구 을지로79 ㅣ 대표전화 : 02-3789-3984 ㅣ FAX : 02-3789-3986</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>천태종복지재단</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>서울 종로구 삼일대로 461 102동, 306호</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>http://www.with99.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>연동복지재단</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>서울 종로구 대학로3길 9 가나의집 5층 503호 연동복지재단</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>사회복지법인성원복지재단</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>서울 성북구 성북로 87-1 백강빌딩</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>한국새생명사랑재단</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>서울 종로구 율곡로14길 10 오양빌딩4층</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>http://www.knlf.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>일광복지재단</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>서울 성북구 삼선교로18길 23</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>http://www.iggywelfare.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>KT&amp;G복지재단중부복지센터</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>서울 중구 서소문로 22</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>남촌재단</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>서울 종로구 필운대로 76 GS남촌리더십센터</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>http://www.jkhuhfoundation.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>한국장로교복지재단</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>서울 종로구 대학로3길 29</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>http://wel.pck.or.kr/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>생명문화재단</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>서울 중구 장충단로6길 15</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>구세군복지재단홍은종합사회복지관홍제동별관</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>서울 서대문구 세검정로 71</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>웅진재단</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>서울 종로구 새문안로 92 광화문오피시아빌딩 15층</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>http://www.wjf.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>골든써클재단</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>서울 종로구 율곡로 190 여전도회관</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>http://www.gcfkorea.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>국민사회복지협회</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>서울 중구 서소문로 89-20 동양빌딩 B동 4층</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>http://knswa.org/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>진각복지재단</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>서울 성북구 화랑로13길 17</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>http://www.jgo.or.kr/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>서울특별시 성북구 화랑로 13길 17 전화번호 : 02) 942-0144~5 팩스 : 02) 942-0146 E-mail : 029420144@hanmail.net
+COPYRIGHT (C) 사회복지법인 진각복지재단, ALL RIGHTS RESERVED.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>정인욱복지재단</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>서울 종로구 사직로8길 34</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>http://www.chungiw-hsf.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>평원재단</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>서울 종로구 혜화로9길 12</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>http://www.pyongwon.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>보령중보재단</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>서울 종로구 창경궁로 136 보령빌딩</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>http://www.boryungjungbo.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>재단법인 사조희망나눔재단</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>서울 서대문구 통일로 107-39 사조빌딩 401호</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>http://www.sajonanum.or.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>국제사랑재단</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>서울 종로구 대학로 19</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>http://www.ilovefound.or.kr/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>양현재단</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>서울 종로구 북촌로12길 21</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>http://www.yanghyun.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>한국새생명복지재단</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>서울 성북구 삼선교로24길 55 부영빌딩</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>http://www.koreassm.org/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>팩스 :</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>건양복지</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>서울 중구 장충단로 226 케이와이 헤리티지 호텔</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>http://www.keonyang.org/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>팩스: 02-902-3333</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>백산복지재단</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>서울 서대문구 모래내로 285</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>영락사회복지재단</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>서울 중구 수표로 28</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>http://www.ynswf.co.kr/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>영락사회복지재단      대표자 : 박남진      대표전화 : 02-2265-7023      팩스 : 02-2277-5855
+주소 : 서울시 중구 수표로 28 보아스 501호      사업자등록번호 : 202-82-30130      이메일 : ynswf@naver.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>어린이재단 서울가정위탁지원센터</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>서울 중구 무교로 20 어린이재단 빌딩 3층</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>http://www.seoul-foster.or.kr/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Fax : 02)325-2664</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>사회복지법인닮복지재단</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>서울 강북구 솔샘로65길 43 그린하우스</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>http://www.darmbokji.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>48</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>KT&amp;G복지재단 북부복지센터</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>서울 강북구 수유로 50 젬스톤타워</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>http://www.ktngwelfare.org/welfare/welfare_02.asp</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>오병이어복지재단 럽앤홉</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>서울 은평구 역말로10길 30-1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>http://www.xn--dm2b48vz8m.org/</t>
         </is>
       </c>
     </row>

--- a/2.Python/WebCrawler/Crawler_1.0/결과.xlsx
+++ b/2.Python/WebCrawler/Crawler_1.0/결과.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -427,8 +427,349 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>업체명</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>주소</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>전화번호</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>팩스번호</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>홈페이지</t>
+        </is>
+      </c>
+    </row>
     <row r="2"/>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>재단법인 김만덕재단</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>제주 제주시 서광로20길 31</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>064-756-0805</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>팩스번호</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>http://www.kmdfd.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>상명복지재단</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>제주 제주시 월평4길 26 상명복지타운</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>064-723-1318</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>http://www.sangmyoung.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>제주종합사회복지회관</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>제주 제주시 도남로 121</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>064-753-2740</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>http://www.childfund-jeju.or.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>성안복지재단</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>제주 제주시 중앙로 470</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>064-702-1250</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>초록우산 어린이재단 제주지역본부</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>제주 제주시 오남로 20 2층</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>064-753-3703</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>곶자왈공유화재단</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>제주 제주시 조천읍 남조로 2023 교래자연휴양림</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>064-783-6047</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FAX.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>http://www.jejutrust.net/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>재단법인 제주여성가족연구원</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>제주 제주시 연오로 89 2층, 3층</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>064-720-4917</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>사회복지법인춘강</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>제주 제주시 516로 3120-1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>사람사는세상 노무현재단 제주지역위원회</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>제주 제주시 과원북4길 93 오일장신문</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>064-746-0523</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>제주소아암재단</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>제주 제주시 오라남로 75-2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>064-723-3091</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>베사모복지장학회</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>제주 제주시 중앙로14길 5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>064-758-0449</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>http://www.besamo.com/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
